--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/CALIFORNIA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/CALIFORNIA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2369"/>
+  <dimension ref="A1:D2363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,14 +574,14 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
         <v>34</v>
       </c>
       <c r="D16">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="17">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C42">
@@ -947,7 +947,7 @@
         <v>34</v>
       </c>
       <c r="D43">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C45">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C47">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C57">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C63">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C91">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C92">
@@ -1629,7 +1629,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C96">
@@ -1668,7 +1668,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C99">
@@ -1824,7 +1824,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C111">
@@ -1837,7 +1837,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C112">
@@ -2234,7 +2234,7 @@
         <v>3571</v>
       </c>
       <c r="D142">
-        <v>0.009840637340409995</v>
+        <v>0.009840637340409996</v>
       </c>
     </row>
     <row r="143">
@@ -2453,7 +2453,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C159">
@@ -2596,7 +2596,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C170">
@@ -2635,7 +2635,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C173">
@@ -2837,7 +2837,7 @@
         <v>34</v>
       </c>
       <c r="D188">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="189">
@@ -2947,7 +2947,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C197">
@@ -2960,7 +2960,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C198">
@@ -2973,7 +2973,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C199">
@@ -3077,7 +3077,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C207">
@@ -3420,7 +3420,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C233">
@@ -3633,7 +3633,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C249">
@@ -3659,7 +3659,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3716,7 +3716,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C255">
@@ -3916,7 +3916,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C270">
@@ -4098,7 +4098,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C284">
@@ -4150,7 +4150,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C288">
@@ -4241,7 +4241,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C295">
@@ -4254,7 +4254,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C296">
@@ -4267,7 +4267,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C297">
@@ -4280,7 +4280,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C298">
@@ -4300,7 +4300,7 @@
         <v>34</v>
       </c>
       <c r="D299">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="300">
@@ -4410,12 +4410,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C308">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C311">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C312">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C313">
@@ -4571,7 +4571,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C320">
@@ -4675,7 +4675,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C328">
@@ -4747,13 +4747,13 @@
         <v>333</v>
       </c>
       <c r="D333">
-        <v>0.0009176511437570787</v>
+        <v>0.0009176511437570788</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C334">
@@ -4844,7 +4844,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C341">
@@ -4948,7 +4948,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C349">
@@ -4961,7 +4961,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C350">
@@ -5182,7 +5182,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C367">
@@ -5364,7 +5364,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C381">
@@ -5377,7 +5377,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C382">
@@ -5390,7 +5390,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C383">
@@ -5416,7 +5416,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C385">
@@ -5442,7 +5442,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C387">
@@ -5572,7 +5572,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C397">
@@ -5585,7 +5585,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C398">
@@ -5767,7 +5767,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C412">
@@ -5845,7 +5845,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C418">
@@ -5858,7 +5858,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C419">
@@ -5871,7 +5871,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C420">
@@ -5884,7 +5884,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C421">
@@ -5904,7 +5904,7 @@
         <v>333</v>
       </c>
       <c r="D422">
-        <v>0.0009176511437570787</v>
+        <v>0.0009176511437570788</v>
       </c>
     </row>
     <row r="423">
@@ -6058,7 +6058,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C434">
@@ -6071,7 +6071,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C435">
@@ -6084,7 +6084,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C436">
@@ -6188,7 +6188,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C444">
@@ -6240,7 +6240,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C448">
@@ -6344,7 +6344,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C456">
@@ -6396,7 +6396,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C460">
@@ -6422,7 +6422,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C462">
@@ -6448,7 +6448,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C464">
@@ -6474,7 +6474,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C466">
@@ -6500,7 +6500,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C468">
@@ -6565,7 +6565,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C473">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C479">
@@ -6687,7 +6687,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C482">
@@ -6700,7 +6700,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C483">
@@ -6752,7 +6752,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C487">
@@ -6765,7 +6765,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C488">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C490">
@@ -6804,7 +6804,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C491">
@@ -6843,7 +6843,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C494">
@@ -6856,7 +6856,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C495">
@@ -6869,7 +6869,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C496">
@@ -6882,7 +6882,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C497">
@@ -6947,7 +6947,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C502">
@@ -6960,7 +6960,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C503">
@@ -7012,7 +7012,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C507">
@@ -7025,7 +7025,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C508">
@@ -7103,7 +7103,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C514">
@@ -7116,7 +7116,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C515">
@@ -7142,7 +7142,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C517">
@@ -7181,7 +7181,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C520">
@@ -7220,7 +7220,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C523">
@@ -7389,7 +7389,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C536">
@@ -7415,7 +7415,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C538">
@@ -7441,7 +7441,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C540">
@@ -7467,7 +7467,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C542">
@@ -7519,7 +7519,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C546">
@@ -7532,7 +7532,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C547">
@@ -7693,7 +7693,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C559">
@@ -7784,7 +7784,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C566">
@@ -7797,7 +7797,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C567">
@@ -7875,7 +7875,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C573">
@@ -7953,7 +7953,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C579">
@@ -8005,7 +8005,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C583">
@@ -8044,7 +8044,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C586">
@@ -8135,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C593">
@@ -8148,7 +8148,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C594">
@@ -8161,7 +8161,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C595">
@@ -8174,7 +8174,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C596">
@@ -8187,7 +8187,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C597">
@@ -8213,7 +8213,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C599">
@@ -8226,20 +8226,20 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C600">
         <v>34</v>
       </c>
       <c r="D600">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C601">
@@ -8278,7 +8278,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C604">
@@ -8356,7 +8356,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C610">
@@ -8369,7 +8369,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C611">
@@ -8421,7 +8421,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C615">
@@ -8441,13 +8441,13 @@
         <v>341</v>
       </c>
       <c r="D616">
-        <v>0.0009396968168803719</v>
+        <v>0.000939696816880372</v>
       </c>
     </row>
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C617">
@@ -8460,7 +8460,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C618">
@@ -8499,7 +8499,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C621">
@@ -8616,7 +8616,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C630">
@@ -8629,7 +8629,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C631">
@@ -8642,7 +8642,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C632">
@@ -8694,7 +8694,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C636">
@@ -8707,7 +8707,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C637">
@@ -8777,7 +8777,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C642">
@@ -8790,7 +8790,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C643">
@@ -8855,7 +8855,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C648">
@@ -8894,7 +8894,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C651">
@@ -8920,7 +8920,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C653">
@@ -8998,7 +8998,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C659">
@@ -9089,7 +9089,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C666">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C667">
@@ -9219,7 +9219,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C676">
@@ -9310,7 +9310,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C683">
@@ -9323,7 +9323,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C684">
@@ -9336,7 +9336,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C685">
@@ -9388,7 +9388,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C689">
@@ -9466,7 +9466,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C695">
@@ -9479,7 +9479,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C696">
@@ -9583,7 +9583,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C704">
@@ -9648,7 +9648,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C709">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C710">
@@ -9687,7 +9687,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C712">
@@ -9700,7 +9700,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C713">
@@ -9739,7 +9739,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C716">
@@ -9765,7 +9765,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C718">
@@ -9778,7 +9778,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C719">
@@ -9791,7 +9791,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C720">
@@ -9804,7 +9804,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C721">
@@ -9843,7 +9843,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C724">
@@ -9856,7 +9856,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C725">
@@ -9895,7 +9895,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C728">
@@ -9947,7 +9947,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C732">
@@ -9960,7 +9960,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C733">
@@ -9999,7 +9999,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C736">
@@ -10012,7 +10012,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C737">
@@ -10071,7 +10071,7 @@
         <v>341</v>
       </c>
       <c r="D741">
-        <v>0.0009396968168803719</v>
+        <v>0.000939696816880372</v>
       </c>
     </row>
     <row r="742">
@@ -10168,7 +10168,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C749">
@@ -10181,7 +10181,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C750">
@@ -10194,7 +10194,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C751">
@@ -10207,7 +10207,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C752">
@@ -10272,7 +10272,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C757">
@@ -10285,7 +10285,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C758">
@@ -10324,7 +10324,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C761">
@@ -10337,7 +10337,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C762">
@@ -10350,7 +10350,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C763">
@@ -10693,7 +10693,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C789">
@@ -10719,7 +10719,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C791">
@@ -11590,7 +11590,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C858">
@@ -11933,7 +11933,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C884">
@@ -12089,7 +12089,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C896">
@@ -12167,7 +12167,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C902">
@@ -12193,7 +12193,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C904">
@@ -12297,7 +12297,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C912">
@@ -12348,13 +12348,13 @@
         <v>332</v>
       </c>
       <c r="D915">
-        <v>0.0009148954346166671</v>
+        <v>0.0009148954346166672</v>
       </c>
     </row>
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C916">
@@ -12367,7 +12367,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C917">
@@ -12419,7 +12419,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C921">
@@ -12510,7 +12510,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C928">
@@ -12944,7 +12944,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C961">
@@ -13053,7 +13053,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C969">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C977">
@@ -13209,7 +13209,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C981">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C983">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C984">
@@ -13261,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C985">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C988">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C991">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C994">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C995">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C996">
@@ -13417,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C997">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C998">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C999">
@@ -13469,7 +13469,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C1001">
@@ -13482,7 +13482,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C1002">
@@ -13495,7 +13495,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C1003">
@@ -13508,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C1004">
@@ -13521,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C1005">
@@ -13534,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C1006">
@@ -13560,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1008">
@@ -13573,14 +13573,14 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1009">
         <v>336</v>
       </c>
       <c r="D1009">
-        <v>0.0009259182711783137</v>
+        <v>0.0009259182711783136</v>
       </c>
     </row>
     <row r="1010">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1022">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1024">
@@ -13781,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1025">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1027">
@@ -13833,7 +13833,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1029">
@@ -13846,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1030">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1034">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1036">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1037">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1038">
@@ -13976,7 +13976,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1040">
@@ -13989,7 +13989,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1041">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1043">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C1048">
@@ -14340,7 +14340,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1068">
@@ -14379,7 +14379,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1071">
@@ -14470,7 +14470,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1078">
@@ -14665,7 +14665,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1093">
@@ -14717,7 +14717,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1097">
@@ -14808,7 +14808,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1104">
@@ -14867,7 +14867,7 @@
         <v>34</v>
       </c>
       <c r="D1108">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="1109">
@@ -15120,7 +15120,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1128">
@@ -15133,7 +15133,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1129">
@@ -15289,7 +15289,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1141">
@@ -15458,7 +15458,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1154">
@@ -15471,7 +15471,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1155">
@@ -15484,7 +15484,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1156">
@@ -16017,7 +16017,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1197">
@@ -16134,7 +16134,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1206">
@@ -16355,7 +16355,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1223">
@@ -16368,7 +16368,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C1224">
@@ -16394,7 +16394,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1226">
@@ -16427,7 +16427,7 @@
         <v>34</v>
       </c>
       <c r="D1228">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="1229">
@@ -16719,7 +16719,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1251">
@@ -16823,7 +16823,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1259">
@@ -17161,7 +17161,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1285">
@@ -17174,7 +17174,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1286">
@@ -17187,7 +17187,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1287">
@@ -17421,7 +17421,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1305">
@@ -17668,7 +17668,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1324">
@@ -17733,7 +17733,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1329">
@@ -17824,7 +17824,7 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1336">
@@ -17837,7 +17837,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1337">
@@ -17863,7 +17863,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1339">
@@ -18058,7 +18058,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1354">
@@ -18071,7 +18071,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1355">
@@ -18188,7 +18188,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1364">
@@ -18214,7 +18214,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C1366">
@@ -18338,7 +18338,7 @@
         <v>34</v>
       </c>
       <c r="D1375">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="1376">
@@ -18734,7 +18734,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1406">
@@ -19319,7 +19319,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1451">
@@ -19670,7 +19670,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1478">
@@ -19696,7 +19696,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1480">
@@ -19709,7 +19709,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1481">
@@ -19735,7 +19735,7 @@
     <row r="1483">
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1483">
@@ -19748,7 +19748,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1484">
@@ -19761,7 +19761,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1485">
@@ -19774,7 +19774,7 @@
     <row r="1486">
       <c r="B1486" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1486">
@@ -19800,7 +19800,7 @@
     <row r="1488">
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1488">
@@ -19826,7 +19826,7 @@
     <row r="1490">
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1490">
@@ -19852,7 +19852,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1492">
@@ -19865,7 +19865,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1493">
@@ -19917,7 +19917,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1497">
@@ -19930,7 +19930,7 @@
     <row r="1498">
       <c r="B1498" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1498">
@@ -19943,7 +19943,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1499">
@@ -19956,7 +19956,7 @@
     <row r="1500">
       <c r="B1500" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1500">
@@ -19969,7 +19969,7 @@
     <row r="1501">
       <c r="B1501" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1501">
@@ -20008,7 +20008,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1504">
@@ -20021,7 +20021,7 @@
     <row r="1505">
       <c r="B1505" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1505">
@@ -20034,7 +20034,7 @@
     <row r="1506">
       <c r="B1506" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1506">
@@ -20073,7 +20073,7 @@
     <row r="1509">
       <c r="B1509" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1509">
@@ -20125,7 +20125,7 @@
     <row r="1513">
       <c r="B1513" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1513">
@@ -20145,7 +20145,7 @@
         <v>33708</v>
       </c>
       <c r="D1514">
-        <v>0.09288944370499583</v>
+        <v>0.09288944370499584</v>
       </c>
     </row>
     <row r="1515">
@@ -20481,7 +20481,7 @@
     <row r="1540">
       <c r="B1540" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1540">
@@ -20559,7 +20559,7 @@
     <row r="1546">
       <c r="B1546" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1546">
@@ -20702,7 +20702,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1557">
@@ -20845,7 +20845,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1568">
@@ -20897,7 +20897,7 @@
     <row r="1572">
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1572">
@@ -20910,7 +20910,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1573">
@@ -21118,7 +21118,7 @@
     <row r="1589">
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1589">
@@ -21131,7 +21131,7 @@
     <row r="1590">
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1590">
@@ -21196,7 +21196,7 @@
     <row r="1595">
       <c r="B1595" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1595">
@@ -21222,7 +21222,7 @@
     <row r="1597">
       <c r="B1597" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1597">
@@ -21274,7 +21274,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1601">
@@ -21417,7 +21417,7 @@
     <row r="1612">
       <c r="B1612" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1612">
@@ -21430,7 +21430,7 @@
     <row r="1613">
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1613">
@@ -21599,7 +21599,7 @@
     <row r="1626">
       <c r="B1626" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1626">
@@ -21729,14 +21729,14 @@
     <row r="1636">
       <c r="B1636" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1636">
         <v>34</v>
       </c>
       <c r="D1636">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="1637">
@@ -21950,7 +21950,7 @@
     <row r="1653">
       <c r="B1653" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1653">
@@ -22002,7 +22002,7 @@
     <row r="1657">
       <c r="B1657" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1657">
@@ -22015,7 +22015,7 @@
     <row r="1658">
       <c r="B1658" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1658">
@@ -22132,7 +22132,7 @@
     <row r="1667">
       <c r="B1667" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1667">
@@ -22236,7 +22236,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1675">
@@ -22249,7 +22249,7 @@
     <row r="1676">
       <c r="B1676" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1676">
@@ -22262,7 +22262,7 @@
     <row r="1677">
       <c r="B1677" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1677">
@@ -22340,7 +22340,7 @@
     <row r="1683">
       <c r="B1683" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1683">
@@ -22366,7 +22366,7 @@
     <row r="1685">
       <c r="B1685" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1685">
@@ -22379,7 +22379,7 @@
     <row r="1686">
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1686">
@@ -22392,7 +22392,7 @@
     <row r="1687">
       <c r="B1687" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1687">
@@ -22457,7 +22457,7 @@
     <row r="1692">
       <c r="B1692" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1692">
@@ -22613,7 +22613,7 @@
     <row r="1704">
       <c r="B1704" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1704">
@@ -22639,7 +22639,7 @@
     <row r="1706">
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1706">
@@ -22691,7 +22691,7 @@
     <row r="1710">
       <c r="B1710" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1710">
@@ -22769,7 +22769,7 @@
     <row r="1716">
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1716">
@@ -22873,7 +22873,7 @@
     <row r="1724">
       <c r="B1724" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1724">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1733">
@@ -23021,7 +23021,7 @@
     <row r="1735">
       <c r="B1735" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1735">
@@ -23099,7 +23099,7 @@
     <row r="1741">
       <c r="B1741" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1741">
@@ -23112,7 +23112,7 @@
     <row r="1742">
       <c r="B1742" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1742">
@@ -23151,7 +23151,7 @@
     <row r="1745">
       <c r="B1745" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1745">
@@ -23190,7 +23190,7 @@
     <row r="1748">
       <c r="B1748" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1748">
@@ -23408,7 +23408,7 @@
     <row r="1764">
       <c r="B1764" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1764">
@@ -23421,7 +23421,7 @@
     <row r="1765">
       <c r="B1765" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1765">
@@ -23486,7 +23486,7 @@
     <row r="1770">
       <c r="B1770" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1770">
@@ -23512,7 +23512,7 @@
     <row r="1772">
       <c r="B1772" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1772">
@@ -23655,7 +23655,7 @@
     <row r="1783">
       <c r="B1783" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1783">
@@ -23733,7 +23733,7 @@
     <row r="1789">
       <c r="B1789" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1789">
@@ -23811,7 +23811,7 @@
     <row r="1795">
       <c r="B1795" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1795">
@@ -23837,7 +23837,7 @@
     <row r="1797">
       <c r="B1797" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1797">
@@ -23941,7 +23941,7 @@
     <row r="1805">
       <c r="B1805" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1805">
@@ -23993,7 +23993,7 @@
     <row r="1809">
       <c r="B1809" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1809">
@@ -24006,7 +24006,7 @@
     <row r="1810">
       <c r="B1810" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1810">
@@ -24019,7 +24019,7 @@
     <row r="1811">
       <c r="B1811" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1811">
@@ -24032,7 +24032,7 @@
     <row r="1812">
       <c r="B1812" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1812">
@@ -24045,7 +24045,7 @@
     <row r="1813">
       <c r="B1813" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1813">
@@ -24058,7 +24058,7 @@
     <row r="1814">
       <c r="B1814" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1814">
@@ -24874,7 +24874,7 @@
     <row r="1876">
       <c r="B1876" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1876">
@@ -25030,7 +25030,7 @@
     <row r="1888">
       <c r="B1888" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1888">
@@ -25043,7 +25043,7 @@
     <row r="1889">
       <c r="B1889" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1889">
@@ -25308,7 +25308,7 @@
     <row r="1909">
       <c r="B1909" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1909">
@@ -25807,7 +25807,7 @@
     <row r="1947">
       <c r="B1947" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1947">
@@ -25866,7 +25866,7 @@
         <v>34</v>
       </c>
       <c r="D1951">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="1952">
@@ -25903,7 +25903,7 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1954">
@@ -25929,7 +25929,7 @@
     <row r="1956">
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1956">
@@ -25942,7 +25942,7 @@
     <row r="1957">
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1957">
@@ -26014,13 +26014,13 @@
         <v>350</v>
       </c>
       <c r="D1962">
-        <v>0.0009644981991440767</v>
+        <v>0.0009644981991440768</v>
       </c>
     </row>
     <row r="1963">
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1963">
@@ -26124,7 +26124,7 @@
     <row r="1971">
       <c r="B1971" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1971">
@@ -26176,7 +26176,7 @@
     <row r="1975">
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1975">
@@ -26189,7 +26189,7 @@
     <row r="1976">
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1976">
@@ -26202,7 +26202,7 @@
     <row r="1977">
       <c r="B1977" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1977">
@@ -26235,13 +26235,13 @@
         <v>34</v>
       </c>
       <c r="D1979">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="1980">
       <c r="B1980" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1980">
@@ -26319,7 +26319,7 @@
     <row r="1986">
       <c r="B1986" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1986">
@@ -26332,7 +26332,7 @@
     <row r="1987">
       <c r="B1987" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1987">
@@ -26423,7 +26423,7 @@
     <row r="1994">
       <c r="B1994" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1994">
@@ -26462,7 +26462,7 @@
     <row r="1997">
       <c r="B1997" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1997">
@@ -26618,7 +26618,7 @@
     <row r="2009">
       <c r="B2009" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C2009">
@@ -26740,7 +26740,7 @@
     <row r="2018">
       <c r="B2018" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C2018">
@@ -26792,7 +26792,7 @@
     <row r="2022">
       <c r="B2022" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C2022">
@@ -26890,7 +26890,7 @@
         <v>34</v>
       </c>
       <c r="D2029">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="2030">
@@ -26948,7 +26948,7 @@
     <row r="2034">
       <c r="B2034" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C2034">
@@ -26974,7 +26974,7 @@
     <row r="2036">
       <c r="B2036" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C2036">
@@ -27026,7 +27026,7 @@
     <row r="2040">
       <c r="B2040" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C2040">
@@ -27052,7 +27052,7 @@
     <row r="2042">
       <c r="B2042" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C2042">
@@ -27156,7 +27156,7 @@
     <row r="2050">
       <c r="B2050" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C2050">
@@ -27338,7 +27338,7 @@
     <row r="2064">
       <c r="B2064" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C2064">
@@ -27351,7 +27351,7 @@
     <row r="2065">
       <c r="B2065" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C2065">
@@ -27572,7 +27572,7 @@
     <row r="2082">
       <c r="B2082" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C2082">
@@ -27585,7 +27585,7 @@
     <row r="2083">
       <c r="B2083" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C2083">
@@ -27598,7 +27598,7 @@
     <row r="2084">
       <c r="B2084" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C2084">
@@ -27650,7 +27650,7 @@
     <row r="2088">
       <c r="B2088" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C2088">
@@ -27663,7 +27663,7 @@
     <row r="2089">
       <c r="B2089" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C2089">
@@ -27676,7 +27676,7 @@
     <row r="2090">
       <c r="B2090" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C2090">
@@ -27689,7 +27689,7 @@
     <row r="2091">
       <c r="B2091" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C2091">
@@ -27845,14 +27845,14 @@
     <row r="2103">
       <c r="B2103" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C2103">
         <v>34</v>
       </c>
       <c r="D2103">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="2104">
@@ -27884,7 +27884,7 @@
     <row r="2106">
       <c r="B2106" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C2106">
@@ -27923,7 +27923,7 @@
     <row r="2109">
       <c r="B2109" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C2109">
@@ -27936,7 +27936,7 @@
     <row r="2110">
       <c r="B2110" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C2110">
@@ -28014,7 +28014,7 @@
     <row r="2116">
       <c r="B2116" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C2116">
@@ -28053,7 +28053,7 @@
     <row r="2119">
       <c r="B2119" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C2119">
@@ -28105,7 +28105,7 @@
     <row r="2123">
       <c r="B2123" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C2123">
@@ -28131,7 +28131,7 @@
     <row r="2125">
       <c r="B2125" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C2125">
@@ -28261,7 +28261,7 @@
     <row r="2135">
       <c r="B2135" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C2135">
@@ -28313,7 +28313,7 @@
     <row r="2139">
       <c r="B2139" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C2139">
@@ -28326,7 +28326,7 @@
     <row r="2140">
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C2140">
@@ -28378,7 +28378,7 @@
     <row r="2144">
       <c r="B2144" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C2144">
@@ -28508,7 +28508,7 @@
     <row r="2154">
       <c r="B2154" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C2154">
@@ -28560,7 +28560,7 @@
     <row r="2158">
       <c r="B2158" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C2158">
@@ -28664,7 +28664,7 @@
     <row r="2166">
       <c r="B2166" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C2166">
@@ -28710,7 +28710,7 @@
         <v>34</v>
       </c>
       <c r="D2169">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="2170">
@@ -28963,7 +28963,7 @@
     <row r="2189">
       <c r="B2189" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C2189">
@@ -29145,7 +29145,7 @@
     <row r="2203">
       <c r="B2203" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2203">
@@ -29243,7 +29243,7 @@
         <v>34</v>
       </c>
       <c r="D2210">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="2211">
@@ -29288,7 +29288,7 @@
     <row r="2214">
       <c r="B2214" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2214">
@@ -29301,7 +29301,7 @@
     <row r="2215">
       <c r="B2215" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2215">
@@ -30177,7 +30177,7 @@
     <row r="2282">
       <c r="B2282" t="inlineStr">
         <is>
-          <t>Tekal de Venegas</t>
+          <t>Tekal De Venegas</t>
         </is>
       </c>
       <c r="C2282">
@@ -30546,7 +30546,7 @@
     <row r="2310">
       <c r="B2310" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2310">
@@ -30572,7 +30572,7 @@
     <row r="2312">
       <c r="B2312" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2312">
@@ -30598,7 +30598,7 @@
     <row r="2314">
       <c r="B2314" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2314">
@@ -30741,7 +30741,7 @@
     <row r="2325">
       <c r="B2325" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2325">
@@ -30832,7 +30832,7 @@
     <row r="2332">
       <c r="B2332" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2332">
@@ -30897,7 +30897,7 @@
     <row r="2337">
       <c r="B2337" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2337">
@@ -30910,7 +30910,7 @@
     <row r="2338">
       <c r="B2338" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2338">
@@ -30923,7 +30923,7 @@
     <row r="2339">
       <c r="B2339" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2339">
@@ -30956,7 +30956,7 @@
         <v>34</v>
       </c>
       <c r="D2341">
-        <v>9.369411077399603E-05</v>
+        <v>9.369411077399604E-05</v>
       </c>
     </row>
     <row r="2342">
@@ -31066,7 +31066,7 @@
     <row r="2350">
       <c r="B2350" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2350">
@@ -31079,7 +31079,7 @@
     <row r="2351">
       <c r="B2351" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2351">
@@ -31105,7 +31105,7 @@
     <row r="2353">
       <c r="B2353" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2353">
@@ -31144,7 +31144,7 @@
     <row r="2356">
       <c r="B2356" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2356">
@@ -31243,41 +31243,6 @@
       </c>
       <c r="D2363">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2367">
-      <c r="A2367" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2368">
-      <c r="A2368" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2369">
-      <c r="A2369" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
